--- a/biology/Zoologie/Bulbul_des_jardins/Bulbul_des_jardins.xlsx
+++ b/biology/Zoologie/Bulbul_des_jardins/Bulbul_des_jardins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycnonotus barbatus
 Le Bulbul des jardins (Pycnonotus barbatus) est une espèce de passereaux de la famille des Pycnonotidae.
-L'espèce est considérée de préoccupation mineure par l'UICN (2021)[1].
+L'espèce est considérée de préoccupation mineure par l'UICN (2021).
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bulbuls sont globalement de petits oiseaux arboricoles dont la seule différence entre les sexes est que les mâles sont plus grands[2]. Les immatures sont semblables aux adultes. Ces oiseaux sont assez peu colorés (gris, brun, vert, jaune, beige, blanchâtre, etc.). Et ce sont des frugivores et insectivores. Ils n'appartiennent pas à un genre taxinomique unique.
-Le Bulbul des jardins est un petit oiseau d’une vingtaine de centimètres de long, au plumage assez terne. Les parties supérieures sont d'un brun moyen localement nuancé de fauve[3],[4]. La tête est comme encapuchonnée de brun sombre, la face devenant presque noire et incluant un œil, noir également. Le bec est noir, fort et d'aspect légèrement courbe[2],[3]. La queue dépasse largement les courtes ailes. Les pattes noires sont robustes. Les parties inférieures sont blanchâtres à beige brunâtre. Le vol est plutôt rapide et direct[3]. 
-Assez bruyant, il émet des phrases musicales courtes agréables à l'oreille : tou-TOUI-twuir-tou-TOUII ou tchouk-touu-tu-tuiuii ou encore kouik-kouik-kouiouu[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bulbuls sont globalement de petits oiseaux arboricoles dont la seule différence entre les sexes est que les mâles sont plus grands. Les immatures sont semblables aux adultes. Ces oiseaux sont assez peu colorés (gris, brun, vert, jaune, beige, blanchâtre, etc.). Et ce sont des frugivores et insectivores. Ils n'appartiennent pas à un genre taxinomique unique.
+Le Bulbul des jardins est un petit oiseau d’une vingtaine de centimètres de long, au plumage assez terne. Les parties supérieures sont d'un brun moyen localement nuancé de fauve,. La tête est comme encapuchonnée de brun sombre, la face devenant presque noire et incluant un œil, noir également. Le bec est noir, fort et d'aspect légèrement courbe,. La queue dépasse largement les courtes ailes. Les pattes noires sont robustes. Les parties inférieures sont blanchâtres à beige brunâtre. Le vol est plutôt rapide et direct. 
+Assez bruyant, il émet des phrases musicales courtes agréables à l'oreille : tou-TOUI-twuir-tou-TOUII ou tchouk-touu-tu-tuiuii ou encore kouik-kouik-kouiouu. 
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce peuple l’Afrique inter tropicale depuis la Mauritanie et le Sénégal à l’Ouest, et jusqu’en Erythrée ou en Ethiopie à l’Est[3]. Au Sud, elle descend jusque vers le Gabon et le Sud du Congo. On le retrouve occasionnellement en Europe du Sud et en Afrique du Nord[5]. Ce bulbul est très commun, même à proximité de l’Homme. Il a besoin seulement d’un minimum de végétation arbustive ou arborée, et de fruits et graines, dont il se nourrit. Hormis cela, il s'adapte à une très large gamme d'habitat, dont les jardins un minimum aménagés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce peuple l’Afrique inter tropicale depuis la Mauritanie et le Sénégal à l’Ouest, et jusqu’en Erythrée ou en Ethiopie à l’Est. Au Sud, elle descend jusque vers le Gabon et le Sud du Congo. On le retrouve occasionnellement en Europe du Sud et en Afrique du Nord. Ce bulbul est très commun, même à proximité de l’Homme. Il a besoin seulement d’un minimum de végétation arbustive ou arborée, et de fruits et graines, dont il se nourrit. Hormis cela, il s'adapte à une très large gamme d'habitat, dont les jardins un minimum aménagés.
 </t>
         </is>
       </c>
@@ -577,11 +593,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pycnonotus barbatus a été décrite par le naturaliste français René Desfontaines en 1789[6].
-Sous-espèces
-D'après le Congrès ornithologique international (COI), cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pycnonotus barbatus a été décrite par le naturaliste français René Desfontaines en 1789.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bulbul_des_jardins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bulbul_des_jardins</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le Congrès ornithologique international (COI), cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 Pycnonotus barbatus barbatus (Desfontaines, 1789) ;
 Pycnonotus barbatus inornatus (Fraser 1843) ;
 Pycnonotus barbatus gabonensis Sharpe 1871 ;
